--- a/Global_M2/TVDataFeed/FinalData/M2_Data/United Arab Emirates_M2.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/M2_Data/United Arab Emirates_M2.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G252"/>
+  <dimension ref="A1:G255"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6561,16 +6561,16 @@
         </is>
       </c>
       <c r="C245" t="n">
-        <v>1568100000000</v>
+        <v>1568092000000</v>
       </c>
       <c r="D245" t="n">
-        <v>1568100000000</v>
+        <v>1568092000000</v>
       </c>
       <c r="E245" t="n">
-        <v>1568100000000</v>
+        <v>1568092000000</v>
       </c>
       <c r="F245" t="n">
-        <v>1568100000000</v>
+        <v>1568092000000</v>
       </c>
       <c r="G245" t="n">
         <v>0</v>
@@ -6748,6 +6748,81 @@
         <v>1703034000000</v>
       </c>
       <c r="G252" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="2" t="n">
+        <v>44927.45833333334</v>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>ECONOMICS:AEM2</t>
+        </is>
+      </c>
+      <c r="C253" t="n">
+        <v>1719863000000</v>
+      </c>
+      <c r="D253" t="n">
+        <v>1719863000000</v>
+      </c>
+      <c r="E253" t="n">
+        <v>1719863000000</v>
+      </c>
+      <c r="F253" t="n">
+        <v>1719863000000</v>
+      </c>
+      <c r="G253" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="2" t="n">
+        <v>44958.45833333334</v>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>ECONOMICS:AEM2</t>
+        </is>
+      </c>
+      <c r="C254" t="n">
+        <v>1749400000000</v>
+      </c>
+      <c r="D254" t="n">
+        <v>1749400000000</v>
+      </c>
+      <c r="E254" t="n">
+        <v>1749400000000</v>
+      </c>
+      <c r="F254" t="n">
+        <v>1749400000000</v>
+      </c>
+      <c r="G254" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="2" t="n">
+        <v>44986.45833333334</v>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>ECONOMICS:AEM2</t>
+        </is>
+      </c>
+      <c r="C255" t="n">
+        <v>1788400000000</v>
+      </c>
+      <c r="D255" t="n">
+        <v>1788400000000</v>
+      </c>
+      <c r="E255" t="n">
+        <v>1788400000000</v>
+      </c>
+      <c r="F255" t="n">
+        <v>1788400000000</v>
+      </c>
+      <c r="G255" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Global_M2/TVDataFeed/FinalData/M2_Data/United Arab Emirates_M2.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/M2_Data/United Arab Emirates_M2.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G255"/>
+  <dimension ref="A1:G256"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6811,18 +6811,43 @@
         </is>
       </c>
       <c r="C255" t="n">
-        <v>1788400000000</v>
+        <v>1788372000000</v>
       </c>
       <c r="D255" t="n">
-        <v>1788400000000</v>
+        <v>1788372000000</v>
       </c>
       <c r="E255" t="n">
-        <v>1788400000000</v>
+        <v>1788372000000</v>
       </c>
       <c r="F255" t="n">
-        <v>1788400000000</v>
+        <v>1788372000000</v>
       </c>
       <c r="G255" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="2" t="n">
+        <v>45017.45833333334</v>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>ECONOMICS:AEM2</t>
+        </is>
+      </c>
+      <c r="C256" t="n">
+        <v>1823743000000</v>
+      </c>
+      <c r="D256" t="n">
+        <v>1823743000000</v>
+      </c>
+      <c r="E256" t="n">
+        <v>1823743000000</v>
+      </c>
+      <c r="F256" t="n">
+        <v>1823743000000</v>
+      </c>
+      <c r="G256" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Global_M2/TVDataFeed/FinalData/M2_Data/United Arab Emirates_M2.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/M2_Data/United Arab Emirates_M2.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G256"/>
+  <dimension ref="A1:G257"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -578,7 +578,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>37347.41666666666</v>
+        <v>37347.45833333334</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -878,7 +878,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>37712.41666666666</v>
+        <v>37712.45833333334</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1178,7 +1178,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>38078.41666666666</v>
+        <v>38078.45833333334</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1478,7 +1478,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>38443.41666666666</v>
+        <v>38443.45833333334</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -1928,7 +1928,7 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>38991.41666666666</v>
+        <v>38991.45833333334</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -6736,16 +6736,16 @@
         </is>
       </c>
       <c r="C252" t="n">
-        <v>1703034000000</v>
+        <v>1703600000000</v>
       </c>
       <c r="D252" t="n">
-        <v>1703034000000</v>
+        <v>1703600000000</v>
       </c>
       <c r="E252" t="n">
-        <v>1703034000000</v>
+        <v>1703600000000</v>
       </c>
       <c r="F252" t="n">
-        <v>1703034000000</v>
+        <v>1703600000000</v>
       </c>
       <c r="G252" t="n">
         <v>0</v>
@@ -6761,16 +6761,16 @@
         </is>
       </c>
       <c r="C253" t="n">
-        <v>1719863000000</v>
+        <v>1719900000000</v>
       </c>
       <c r="D253" t="n">
-        <v>1719863000000</v>
+        <v>1719900000000</v>
       </c>
       <c r="E253" t="n">
-        <v>1719863000000</v>
+        <v>1719900000000</v>
       </c>
       <c r="F253" t="n">
-        <v>1719863000000</v>
+        <v>1719900000000</v>
       </c>
       <c r="G253" t="n">
         <v>0</v>
@@ -6786,16 +6786,16 @@
         </is>
       </c>
       <c r="C254" t="n">
-        <v>1749400000000</v>
+        <v>1749500000000</v>
       </c>
       <c r="D254" t="n">
-        <v>1749400000000</v>
+        <v>1749500000000</v>
       </c>
       <c r="E254" t="n">
-        <v>1749400000000</v>
+        <v>1749500000000</v>
       </c>
       <c r="F254" t="n">
-        <v>1749400000000</v>
+        <v>1749500000000</v>
       </c>
       <c r="G254" t="n">
         <v>0</v>
@@ -6848,6 +6848,31 @@
         <v>1823743000000</v>
       </c>
       <c r="G256" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="2" t="n">
+        <v>45047.41666666666</v>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>ECONOMICS:AEM2</t>
+        </is>
+      </c>
+      <c r="C257" t="n">
+        <v>1855323000000</v>
+      </c>
+      <c r="D257" t="n">
+        <v>1855323000000</v>
+      </c>
+      <c r="E257" t="n">
+        <v>1855323000000</v>
+      </c>
+      <c r="F257" t="n">
+        <v>1855323000000</v>
+      </c>
+      <c r="G257" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Global_M2/TVDataFeed/FinalData/M2_Data/United Arab Emirates_M2.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/M2_Data/United Arab Emirates_M2.xlsx
@@ -578,7 +578,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>37347.45833333334</v>
+        <v>37347.41666666666</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -878,7 +878,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>37712.45833333334</v>
+        <v>37712.41666666666</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1178,7 +1178,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>38078.45833333334</v>
+        <v>38078.41666666666</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1478,7 +1478,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>38443.45833333334</v>
+        <v>38443.41666666666</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -1928,7 +1928,7 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>38991.45833333334</v>
+        <v>38991.41666666666</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>

--- a/Global_M2/TVDataFeed/FinalData/M2_Data/United Arab Emirates_M2.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/M2_Data/United Arab Emirates_M2.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G257"/>
+  <dimension ref="A1:G260"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6086,16 +6086,16 @@
         </is>
       </c>
       <c r="C226" t="n">
-        <v>1486500000000</v>
+        <v>1486571000000</v>
       </c>
       <c r="D226" t="n">
-        <v>1486500000000</v>
+        <v>1486571000000</v>
       </c>
       <c r="E226" t="n">
-        <v>1486500000000</v>
+        <v>1486571000000</v>
       </c>
       <c r="F226" t="n">
-        <v>1486500000000</v>
+        <v>1486571000000</v>
       </c>
       <c r="G226" t="n">
         <v>0</v>
@@ -6186,16 +6186,16 @@
         </is>
       </c>
       <c r="C230" t="n">
-        <v>1496000000000</v>
+        <v>1496040000000</v>
       </c>
       <c r="D230" t="n">
-        <v>1496000000000</v>
+        <v>1496040000000</v>
       </c>
       <c r="E230" t="n">
-        <v>1496000000000</v>
+        <v>1496040000000</v>
       </c>
       <c r="F230" t="n">
-        <v>1496000000000</v>
+        <v>1496040000000</v>
       </c>
       <c r="G230" t="n">
         <v>0</v>
@@ -6361,16 +6361,16 @@
         </is>
       </c>
       <c r="C237" t="n">
-        <v>1485913000000</v>
+        <v>1485900000000</v>
       </c>
       <c r="D237" t="n">
-        <v>1485913000000</v>
+        <v>1485900000000</v>
       </c>
       <c r="E237" t="n">
-        <v>1485913000000</v>
+        <v>1485900000000</v>
       </c>
       <c r="F237" t="n">
-        <v>1485913000000</v>
+        <v>1485900000000</v>
       </c>
       <c r="G237" t="n">
         <v>0</v>
@@ -6386,16 +6386,16 @@
         </is>
       </c>
       <c r="C238" t="n">
-        <v>1498354000000</v>
+        <v>1498300000000</v>
       </c>
       <c r="D238" t="n">
-        <v>1498354000000</v>
+        <v>1498300000000</v>
       </c>
       <c r="E238" t="n">
-        <v>1498354000000</v>
+        <v>1498300000000</v>
       </c>
       <c r="F238" t="n">
-        <v>1498354000000</v>
+        <v>1498300000000</v>
       </c>
       <c r="G238" t="n">
         <v>0</v>
@@ -6411,16 +6411,16 @@
         </is>
       </c>
       <c r="C239" t="n">
-        <v>1517097000000</v>
+        <v>1517100000000</v>
       </c>
       <c r="D239" t="n">
-        <v>1517097000000</v>
+        <v>1517100000000</v>
       </c>
       <c r="E239" t="n">
-        <v>1517097000000</v>
+        <v>1517100000000</v>
       </c>
       <c r="F239" t="n">
-        <v>1517097000000</v>
+        <v>1517100000000</v>
       </c>
       <c r="G239" t="n">
         <v>0</v>
@@ -6436,16 +6436,16 @@
         </is>
       </c>
       <c r="C240" t="n">
-        <v>1563025000000</v>
+        <v>1563100000000</v>
       </c>
       <c r="D240" t="n">
-        <v>1563025000000</v>
+        <v>1563100000000</v>
       </c>
       <c r="E240" t="n">
-        <v>1563025000000</v>
+        <v>1563100000000</v>
       </c>
       <c r="F240" t="n">
-        <v>1563025000000</v>
+        <v>1563100000000</v>
       </c>
       <c r="G240" t="n">
         <v>0</v>
@@ -6461,16 +6461,16 @@
         </is>
       </c>
       <c r="C241" t="n">
-        <v>1563408000000</v>
+        <v>1563400000000</v>
       </c>
       <c r="D241" t="n">
-        <v>1563408000000</v>
+        <v>1563400000000</v>
       </c>
       <c r="E241" t="n">
-        <v>1563408000000</v>
+        <v>1563400000000</v>
       </c>
       <c r="F241" t="n">
-        <v>1563408000000</v>
+        <v>1563400000000</v>
       </c>
       <c r="G241" t="n">
         <v>0</v>
@@ -6486,16 +6486,16 @@
         </is>
       </c>
       <c r="C242" t="n">
-        <v>1570345000000</v>
+        <v>1570300000000</v>
       </c>
       <c r="D242" t="n">
-        <v>1570345000000</v>
+        <v>1570300000000</v>
       </c>
       <c r="E242" t="n">
-        <v>1570345000000</v>
+        <v>1570300000000</v>
       </c>
       <c r="F242" t="n">
-        <v>1570345000000</v>
+        <v>1570300000000</v>
       </c>
       <c r="G242" t="n">
         <v>0</v>
@@ -6511,16 +6511,16 @@
         </is>
       </c>
       <c r="C243" t="n">
-        <v>1593354000000</v>
+        <v>1593400000000</v>
       </c>
       <c r="D243" t="n">
-        <v>1593354000000</v>
+        <v>1593400000000</v>
       </c>
       <c r="E243" t="n">
-        <v>1593354000000</v>
+        <v>1593400000000</v>
       </c>
       <c r="F243" t="n">
-        <v>1593354000000</v>
+        <v>1593400000000</v>
       </c>
       <c r="G243" t="n">
         <v>0</v>
@@ -6536,16 +6536,16 @@
         </is>
       </c>
       <c r="C244" t="n">
-        <v>1567218000000</v>
+        <v>1567300000000</v>
       </c>
       <c r="D244" t="n">
-        <v>1567218000000</v>
+        <v>1567300000000</v>
       </c>
       <c r="E244" t="n">
-        <v>1567218000000</v>
+        <v>1567300000000</v>
       </c>
       <c r="F244" t="n">
-        <v>1567218000000</v>
+        <v>1567300000000</v>
       </c>
       <c r="G244" t="n">
         <v>0</v>
@@ -6561,16 +6561,16 @@
         </is>
       </c>
       <c r="C245" t="n">
-        <v>1568092000000</v>
+        <v>1568100000000</v>
       </c>
       <c r="D245" t="n">
-        <v>1568092000000</v>
+        <v>1568100000000</v>
       </c>
       <c r="E245" t="n">
-        <v>1568092000000</v>
+        <v>1568100000000</v>
       </c>
       <c r="F245" t="n">
-        <v>1568092000000</v>
+        <v>1568100000000</v>
       </c>
       <c r="G245" t="n">
         <v>0</v>
@@ -6586,16 +6586,16 @@
         </is>
       </c>
       <c r="C246" t="n">
-        <v>1622144000000</v>
+        <v>1622200000000</v>
       </c>
       <c r="D246" t="n">
-        <v>1622144000000</v>
+        <v>1622200000000</v>
       </c>
       <c r="E246" t="n">
-        <v>1622144000000</v>
+        <v>1622200000000</v>
       </c>
       <c r="F246" t="n">
-        <v>1622144000000</v>
+        <v>1622200000000</v>
       </c>
       <c r="G246" t="n">
         <v>0</v>
@@ -6611,16 +6611,16 @@
         </is>
       </c>
       <c r="C247" t="n">
-        <v>1605971000000</v>
+        <v>1606000000000</v>
       </c>
       <c r="D247" t="n">
-        <v>1605971000000</v>
+        <v>1606000000000</v>
       </c>
       <c r="E247" t="n">
-        <v>1605971000000</v>
+        <v>1606000000000</v>
       </c>
       <c r="F247" t="n">
-        <v>1605971000000</v>
+        <v>1606000000000</v>
       </c>
       <c r="G247" t="n">
         <v>0</v>
@@ -6636,16 +6636,16 @@
         </is>
       </c>
       <c r="C248" t="n">
-        <v>1627742000000</v>
+        <v>1627700000000</v>
       </c>
       <c r="D248" t="n">
-        <v>1627742000000</v>
+        <v>1627700000000</v>
       </c>
       <c r="E248" t="n">
-        <v>1627742000000</v>
+        <v>1627700000000</v>
       </c>
       <c r="F248" t="n">
-        <v>1627742000000</v>
+        <v>1627700000000</v>
       </c>
       <c r="G248" t="n">
         <v>0</v>
@@ -6661,16 +6661,16 @@
         </is>
       </c>
       <c r="C249" t="n">
-        <v>1645538000000</v>
+        <v>1645600000000</v>
       </c>
       <c r="D249" t="n">
-        <v>1645538000000</v>
+        <v>1645600000000</v>
       </c>
       <c r="E249" t="n">
-        <v>1645538000000</v>
+        <v>1645600000000</v>
       </c>
       <c r="F249" t="n">
-        <v>1645538000000</v>
+        <v>1645600000000</v>
       </c>
       <c r="G249" t="n">
         <v>0</v>
@@ -6686,16 +6686,16 @@
         </is>
       </c>
       <c r="C250" t="n">
-        <v>1629318000000</v>
+        <v>1629400000000</v>
       </c>
       <c r="D250" t="n">
-        <v>1629318000000</v>
+        <v>1629400000000</v>
       </c>
       <c r="E250" t="n">
-        <v>1629318000000</v>
+        <v>1629400000000</v>
       </c>
       <c r="F250" t="n">
-        <v>1629318000000</v>
+        <v>1629400000000</v>
       </c>
       <c r="G250" t="n">
         <v>0</v>
@@ -6711,16 +6711,16 @@
         </is>
       </c>
       <c r="C251" t="n">
-        <v>1678006000000</v>
+        <v>1678100000000</v>
       </c>
       <c r="D251" t="n">
-        <v>1678006000000</v>
+        <v>1678100000000</v>
       </c>
       <c r="E251" t="n">
-        <v>1678006000000</v>
+        <v>1678100000000</v>
       </c>
       <c r="F251" t="n">
-        <v>1678006000000</v>
+        <v>1678100000000</v>
       </c>
       <c r="G251" t="n">
         <v>0</v>
@@ -6873,6 +6873,81 @@
         <v>1855323000000</v>
       </c>
       <c r="G257" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="2" t="n">
+        <v>45078.41666666666</v>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>ECONOMICS:AEM2</t>
+        </is>
+      </c>
+      <c r="C258" t="n">
+        <v>1855306000000</v>
+      </c>
+      <c r="D258" t="n">
+        <v>1855306000000</v>
+      </c>
+      <c r="E258" t="n">
+        <v>1855306000000</v>
+      </c>
+      <c r="F258" t="n">
+        <v>1855306000000</v>
+      </c>
+      <c r="G258" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="2" t="n">
+        <v>45108.41666666666</v>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>ECONOMICS:AEM2</t>
+        </is>
+      </c>
+      <c r="C259" t="n">
+        <v>1858844000000</v>
+      </c>
+      <c r="D259" t="n">
+        <v>1858844000000</v>
+      </c>
+      <c r="E259" t="n">
+        <v>1858844000000</v>
+      </c>
+      <c r="F259" t="n">
+        <v>1858844000000</v>
+      </c>
+      <c r="G259" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="2" t="n">
+        <v>45139.41666666666</v>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>ECONOMICS:AEM2</t>
+        </is>
+      </c>
+      <c r="C260" t="n">
+        <v>1860330000000</v>
+      </c>
+      <c r="D260" t="n">
+        <v>1860330000000</v>
+      </c>
+      <c r="E260" t="n">
+        <v>1860330000000</v>
+      </c>
+      <c r="F260" t="n">
+        <v>1860330000000</v>
+      </c>
+      <c r="G260" t="n">
         <v>0</v>
       </c>
     </row>
